--- a/Extracted Data/VRU Headform - Color-wise graphs/2023 Datasheets & Spreadsheets_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2023 Datasheets & Spreadsheets_combined.xlsx
@@ -24,13 +24,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -41,7 +44,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -49,12 +52,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -420,14 +432,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Input Sheet</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -438,14 +463,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Input Sheet</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -456,14 +494,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Input Sheet</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -474,14 +525,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Input Sheet</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -492,14 +556,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Input Sheet</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -510,14 +587,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Input Sheet</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -528,14 +618,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Input Sheet</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -546,14 +649,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Input Sheet</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Extracted Data/VRU Headform - Color-wise graphs/2023 Datasheets & Spreadsheets_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2023 Datasheets & Spreadsheets_combined.xlsx
@@ -443,12 +443,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Input Sheet</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Values</t>
         </is>
       </c>
     </row>
@@ -474,12 +474,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Input Sheet</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Values</t>
         </is>
       </c>
     </row>
@@ -505,12 +505,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Input Sheet</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Values</t>
         </is>
       </c>
     </row>
@@ -536,12 +536,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Input Sheet</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Values</t>
         </is>
       </c>
     </row>
@@ -567,12 +567,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Input Sheet</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Values</t>
         </is>
       </c>
     </row>
@@ -598,12 +598,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Input Sheet</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Values</t>
         </is>
       </c>
     </row>
@@ -629,12 +629,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Input Sheet</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Values</t>
         </is>
       </c>
     </row>
@@ -660,12 +660,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Input Sheet</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Values</t>
         </is>
       </c>
     </row>

--- a/Extracted Data/VRU Headform - Color-wise graphs/2023 Datasheets & Spreadsheets_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2023 Datasheets & Spreadsheets_combined.xlsx
@@ -24,16 +24,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -44,7 +41,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -52,21 +49,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -432,27 +420,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Car Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -463,27 +438,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Car Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -494,27 +456,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Car Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -525,27 +474,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Car Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -556,27 +492,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Car Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -587,27 +510,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Car Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -618,27 +528,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Car Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -649,27 +546,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Car Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Extracted Data/VRU Headform - Color-wise graphs/2023 Datasheets & Spreadsheets_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2023 Datasheets & Spreadsheets_combined.xlsx
@@ -420,14 +420,139 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BYD SEAL</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>XPENG G9</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>VINFAST VF8</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Honda ZR-V</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BYD SEAL-U</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Volkswagen ID.7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BMW 5 series</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>smart #3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BYD TANG</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Hyundai KONA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Kia EV9</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NIO ET5</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NIO EL7</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Lexus RZ</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -438,14 +563,139 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BYD SEAL</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>XPENG G9</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>VINFAST VF8</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Honda ZR-V</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BYD SEAL-U</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Volkswagen ID.7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BMW 5 series</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>smart #3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BYD TANG</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Hyundai KONA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Kia EV9</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NIO ET5</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NIO EL7</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Lexus RZ</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -456,14 +706,139 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BYD SEAL</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>XPENG G9</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>VINFAST VF8</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Honda ZR-V</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BYD SEAL-U</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Volkswagen ID.7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BMW 5 series</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>smart #3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BYD TANG</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Hyundai KONA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Kia EV9</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NIO ET5</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NIO EL7</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Lexus RZ</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -474,14 +849,139 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BYD SEAL</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>XPENG G9</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>VINFAST VF8</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Honda ZR-V</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BYD SEAL-U</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Volkswagen ID.7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BMW 5 series</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>smart #3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BYD TANG</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Hyundai KONA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Kia EV9</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NIO ET5</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NIO EL7</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Lexus RZ</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -492,14 +992,139 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BYD SEAL</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>XPENG G9</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>VINFAST VF8</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Honda ZR-V</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BYD SEAL-U</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Volkswagen ID.7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BMW 5 series</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>smart #3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BYD TANG</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Hyundai KONA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Kia EV9</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NIO ET5</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NIO EL7</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Lexus RZ</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -510,14 +1135,139 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BYD SEAL</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>XPENG G9</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>VINFAST VF8</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Honda ZR-V</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BYD SEAL-U</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Volkswagen ID.7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BMW 5 series</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>smart #3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BYD TANG</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Hyundai KONA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Kia EV9</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NIO ET5</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NIO EL7</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Lexus RZ</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -528,14 +1278,139 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BYD SEAL</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>XPENG G9</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>VINFAST VF8</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Honda ZR-V</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BYD SEAL-U</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Volkswagen ID.7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BMW 5 series</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>smart #3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BYD TANG</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Hyundai KONA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Kia EV9</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NIO ET5</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NIO EL7</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Lexus RZ</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -546,14 +1421,139 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BYD SEAL</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>XPENG G9</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>VINFAST VF8</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Honda ZR-V</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BYD SEAL-U</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Volkswagen ID.7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BMW 5 series</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>smart #3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BYD TANG</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Hyundai KONA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Kia EV9</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NIO ET5</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NIO EL7</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Lexus RZ</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Extracted Data/VRU Headform - Color-wise graphs/2023 Datasheets & Spreadsheets_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2023 Datasheets & Spreadsheets_combined.xlsx
@@ -446,7 +446,11 @@
           <t>BYD SEAL</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -454,7 +458,11 @@
           <t>XPENG G9</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -462,7 +470,11 @@
           <t>VINFAST VF8</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -470,7 +482,11 @@
           <t>Honda ZR-V</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -478,7 +494,11 @@
           <t>BYD SEAL-U</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -486,7 +506,11 @@
           <t>Volkswagen ID.7</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -494,7 +518,11 @@
           <t>BMW 5 series</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -502,7 +530,11 @@
           <t>smart #3</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -510,7 +542,11 @@
           <t>BYD TANG</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -518,7 +554,11 @@
           <t>Hyundai KONA</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -526,7 +566,11 @@
           <t>Kia EV9</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -534,7 +578,11 @@
           <t>NIO ET5</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -542,7 +590,11 @@
           <t>NIO EL7</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -550,7 +602,11 @@
           <t>Lexus RZ</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -589,7 +645,11 @@
           <t>BYD SEAL</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -597,7 +657,11 @@
           <t>XPENG G9</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -605,7 +669,11 @@
           <t>VINFAST VF8</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -613,7 +681,11 @@
           <t>Honda ZR-V</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -621,7 +693,11 @@
           <t>BYD SEAL-U</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -629,7 +705,11 @@
           <t>Volkswagen ID.7</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -637,7 +717,11 @@
           <t>BMW 5 series</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -645,7 +729,11 @@
           <t>smart #3</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -653,7 +741,11 @@
           <t>BYD TANG</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -661,7 +753,11 @@
           <t>Hyundai KONA</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -669,7 +765,11 @@
           <t>Kia EV9</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -677,7 +777,11 @@
           <t>NIO ET5</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -685,7 +789,11 @@
           <t>NIO EL7</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -693,7 +801,11 @@
           <t>Lexus RZ</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -732,7 +844,11 @@
           <t>BYD SEAL</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -740,7 +856,11 @@
           <t>XPENG G9</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -748,7 +868,11 @@
           <t>VINFAST VF8</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -756,7 +880,11 @@
           <t>Honda ZR-V</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -764,7 +892,11 @@
           <t>BYD SEAL-U</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -772,7 +904,11 @@
           <t>Volkswagen ID.7</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -780,7 +916,11 @@
           <t>BMW 5 series</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -788,7 +928,11 @@
           <t>smart #3</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -796,7 +940,11 @@
           <t>BYD TANG</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -804,7 +952,11 @@
           <t>Hyundai KONA</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -812,7 +964,11 @@
           <t>Kia EV9</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -820,7 +976,11 @@
           <t>NIO ET5</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -828,7 +988,11 @@
           <t>NIO EL7</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -836,7 +1000,11 @@
           <t>Lexus RZ</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -875,7 +1043,11 @@
           <t>BYD SEAL</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -883,7 +1055,11 @@
           <t>XPENG G9</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -891,7 +1067,11 @@
           <t>VINFAST VF8</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -899,7 +1079,11 @@
           <t>Honda ZR-V</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -907,7 +1091,11 @@
           <t>BYD SEAL-U</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -915,7 +1103,11 @@
           <t>Volkswagen ID.7</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -923,7 +1115,11 @@
           <t>BMW 5 series</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -931,7 +1127,11 @@
           <t>smart #3</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -939,7 +1139,11 @@
           <t>BYD TANG</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -947,7 +1151,11 @@
           <t>Hyundai KONA</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -955,7 +1163,11 @@
           <t>Kia EV9</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -963,7 +1175,11 @@
           <t>NIO ET5</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -971,7 +1187,11 @@
           <t>NIO EL7</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -979,7 +1199,11 @@
           <t>Lexus RZ</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1018,7 +1242,11 @@
           <t>BYD SEAL</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1026,7 +1254,11 @@
           <t>XPENG G9</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1034,7 +1266,11 @@
           <t>VINFAST VF8</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1042,7 +1278,11 @@
           <t>Honda ZR-V</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1050,7 +1290,11 @@
           <t>BYD SEAL-U</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1058,7 +1302,11 @@
           <t>Volkswagen ID.7</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1066,7 +1314,11 @@
           <t>BMW 5 series</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1074,7 +1326,11 @@
           <t>smart #3</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1082,7 +1338,11 @@
           <t>BYD TANG</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1090,7 +1350,11 @@
           <t>Hyundai KONA</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1098,7 +1362,11 @@
           <t>Kia EV9</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1106,7 +1374,11 @@
           <t>NIO ET5</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1114,7 +1386,11 @@
           <t>NIO EL7</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1122,7 +1398,11 @@
           <t>Lexus RZ</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1161,7 +1441,11 @@
           <t>BYD SEAL</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1169,7 +1453,11 @@
           <t>XPENG G9</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1177,7 +1465,11 @@
           <t>VINFAST VF8</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1185,7 +1477,11 @@
           <t>Honda ZR-V</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1193,7 +1489,11 @@
           <t>BYD SEAL-U</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1201,7 +1501,11 @@
           <t>Volkswagen ID.7</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1209,7 +1513,11 @@
           <t>BMW 5 series</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1217,7 +1525,11 @@
           <t>smart #3</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1225,7 +1537,11 @@
           <t>BYD TANG</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1233,7 +1549,11 @@
           <t>Hyundai KONA</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1241,7 +1561,11 @@
           <t>Kia EV9</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1249,7 +1573,11 @@
           <t>NIO ET5</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1257,7 +1585,11 @@
           <t>NIO EL7</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1265,7 +1597,11 @@
           <t>Lexus RZ</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1304,7 +1640,11 @@
           <t>BYD SEAL</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1312,7 +1652,11 @@
           <t>XPENG G9</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1320,7 +1664,11 @@
           <t>VINFAST VF8</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1328,7 +1676,11 @@
           <t>Honda ZR-V</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1336,7 +1688,11 @@
           <t>BYD SEAL-U</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1344,7 +1700,11 @@
           <t>Volkswagen ID.7</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1352,7 +1712,11 @@
           <t>BMW 5 series</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1360,7 +1724,11 @@
           <t>smart #3</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1368,7 +1736,11 @@
           <t>BYD TANG</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1376,7 +1748,11 @@
           <t>Hyundai KONA</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1384,7 +1760,11 @@
           <t>Kia EV9</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1392,7 +1772,11 @@
           <t>NIO ET5</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1400,7 +1784,11 @@
           <t>NIO EL7</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1408,7 +1796,11 @@
           <t>Lexus RZ</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1447,7 +1839,11 @@
           <t>BYD SEAL</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1455,7 +1851,11 @@
           <t>XPENG G9</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1463,7 +1863,11 @@
           <t>VINFAST VF8</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1471,7 +1875,11 @@
           <t>Honda ZR-V</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1479,7 +1887,11 @@
           <t>BYD SEAL-U</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1487,7 +1899,11 @@
           <t>Volkswagen ID.7</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1495,7 +1911,11 @@
           <t>BMW 5 series</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1503,7 +1923,11 @@
           <t>smart #3</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1511,7 +1935,11 @@
           <t>BYD TANG</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1519,7 +1947,11 @@
           <t>Hyundai KONA</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1527,7 +1959,11 @@
           <t>Kia EV9</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1535,7 +1971,11 @@
           <t>NIO ET5</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1543,7 +1983,11 @@
           <t>NIO EL7</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1551,7 +1995,11 @@
           <t>Lexus RZ</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Extracted Data/VRU Headform - Color-wise graphs/2023 Datasheets & Spreadsheets_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2023 Datasheets & Spreadsheets_combined.xlsx
@@ -446,10 +446,8 @@
           <t>BYD SEAL</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>D Green</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -458,10 +456,8 @@
           <t>XPENG G9</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>D Green</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -470,10 +466,8 @@
           <t>VINFAST VF8</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>D Green</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -482,10 +476,8 @@
           <t>Honda ZR-V</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>D Green</t>
-        </is>
+      <c r="B5" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +486,8 @@
           <t>BYD SEAL-U</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>D Green</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -506,10 +496,8 @@
           <t>Volkswagen ID.7</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>D Green</t>
-        </is>
+      <c r="B7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -518,10 +506,8 @@
           <t>BMW 5 series</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>D Green</t>
-        </is>
+      <c r="B8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -530,10 +516,8 @@
           <t>smart #3</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>D Green</t>
-        </is>
+      <c r="B9" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -542,10 +526,8 @@
           <t>BYD TANG</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>D Green</t>
-        </is>
+      <c r="B10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +536,8 @@
           <t>Hyundai KONA</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>D Green</t>
-        </is>
+      <c r="B11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -566,10 +546,8 @@
           <t>Kia EV9</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>D Green</t>
-        </is>
+      <c r="B12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -578,10 +556,8 @@
           <t>NIO ET5</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>D Green</t>
-        </is>
+      <c r="B13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -590,10 +566,8 @@
           <t>NIO EL7</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>D Green</t>
-        </is>
+      <c r="B14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -602,10 +576,8 @@
           <t>Lexus RZ</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>D Green</t>
-        </is>
+      <c r="B15" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -645,10 +617,8 @@
           <t>BYD SEAL</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -657,10 +627,8 @@
           <t>XPENG G9</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B3" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -669,10 +637,8 @@
           <t>VINFAST VF8</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B4" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="5">
@@ -681,10 +647,8 @@
           <t>Honda ZR-V</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B5" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -693,10 +657,8 @@
           <t>BYD SEAL-U</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B6" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -705,10 +667,8 @@
           <t>Volkswagen ID.7</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B7" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="8">
@@ -717,10 +677,8 @@
           <t>BMW 5 series</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B8" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="9">
@@ -729,10 +687,8 @@
           <t>smart #3</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B9" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -741,10 +697,8 @@
           <t>BYD TANG</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B10" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -753,10 +707,8 @@
           <t>Hyundai KONA</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B11" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="12">
@@ -765,10 +717,8 @@
           <t>Kia EV9</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B12" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="13">
@@ -777,10 +727,8 @@
           <t>NIO ET5</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B13" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="14">
@@ -789,10 +737,8 @@
           <t>NIO EL7</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B14" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="15">
@@ -801,10 +747,8 @@
           <t>Lexus RZ</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B15" t="n">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -844,10 +788,8 @@
           <t>BYD SEAL</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B2" t="n">
+        <v>77.25</v>
       </c>
     </row>
     <row r="3">
@@ -856,10 +798,8 @@
           <t>XPENG G9</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B3" t="n">
+        <v>55.5</v>
       </c>
     </row>
     <row r="4">
@@ -868,10 +808,8 @@
           <t>VINFAST VF8</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B4" t="n">
+        <v>36.75</v>
       </c>
     </row>
     <row r="5">
@@ -880,10 +818,8 @@
           <t>Honda ZR-V</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B5" t="n">
+        <v>59.25</v>
       </c>
     </row>
     <row r="6">
@@ -892,10 +828,8 @@
           <t>BYD SEAL-U</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B6" t="n">
+        <v>62.25</v>
       </c>
     </row>
     <row r="7">
@@ -904,10 +838,8 @@
           <t>Volkswagen ID.7</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B7" t="n">
+        <v>77.25</v>
       </c>
     </row>
     <row r="8">
@@ -916,10 +848,8 @@
           <t>BMW 5 series</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B8" t="n">
+        <v>25.5</v>
       </c>
     </row>
     <row r="9">
@@ -928,10 +858,8 @@
           <t>smart #3</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B9" t="n">
+        <v>41.25</v>
       </c>
     </row>
     <row r="10">
@@ -940,10 +868,8 @@
           <t>BYD TANG</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B10" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -952,10 +878,8 @@
           <t>Hyundai KONA</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B11" t="n">
+        <v>60.75</v>
       </c>
     </row>
     <row r="12">
@@ -964,10 +888,8 @@
           <t>Kia EV9</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B12" t="n">
+        <v>56.25</v>
       </c>
     </row>
     <row r="13">
@@ -976,10 +898,8 @@
           <t>NIO ET5</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B13" t="n">
+        <v>76.5</v>
       </c>
     </row>
     <row r="14">
@@ -988,10 +908,8 @@
           <t>NIO EL7</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B14" t="n">
+        <v>48.75</v>
       </c>
     </row>
     <row r="15">
@@ -1000,10 +918,8 @@
           <t>Lexus RZ</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B15" t="n">
+        <v>44.25</v>
       </c>
     </row>
   </sheetData>
@@ -1043,10 +959,8 @@
           <t>BYD SEAL</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B2" t="n">
+        <v>32.5</v>
       </c>
     </row>
     <row r="3">
@@ -1055,10 +969,8 @@
           <t>XPENG G9</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B3" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -1067,10 +979,8 @@
           <t>VINFAST VF8</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B4" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -1079,10 +989,8 @@
           <t>Honda ZR-V</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B5" t="n">
+        <v>9.5</v>
       </c>
     </row>
     <row r="6">
@@ -1091,10 +999,8 @@
           <t>BYD SEAL-U</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B6" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="7">
@@ -1103,10 +1009,8 @@
           <t>Volkswagen ID.7</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1115,10 +1019,8 @@
           <t>BMW 5 series</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1127,10 +1029,8 @@
           <t>smart #3</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B9" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="10">
@@ -1139,10 +1039,8 @@
           <t>BYD TANG</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B10" t="n">
+        <v>14.5</v>
       </c>
     </row>
     <row r="11">
@@ -1151,10 +1049,8 @@
           <t>Hyundai KONA</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B11" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="12">
@@ -1163,10 +1059,8 @@
           <t>Kia EV9</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B12" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -1175,10 +1069,8 @@
           <t>NIO ET5</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B13" t="n">
+        <v>18.5</v>
       </c>
     </row>
     <row r="14">
@@ -1187,10 +1079,8 @@
           <t>NIO EL7</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B14" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="15">
@@ -1199,10 +1089,8 @@
           <t>Lexus RZ</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B15" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1242,10 +1130,8 @@
           <t>BYD SEAL</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B2" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="3">
@@ -1254,10 +1140,8 @@
           <t>XPENG G9</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B3" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="4">
@@ -1266,10 +1150,8 @@
           <t>VINFAST VF8</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B4" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="5">
@@ -1278,10 +1160,8 @@
           <t>Honda ZR-V</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1290,10 +1170,8 @@
           <t>BYD SEAL-U</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B6" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="7">
@@ -1302,10 +1180,8 @@
           <t>Volkswagen ID.7</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B7" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="8">
@@ -1314,10 +1190,8 @@
           <t>BMW 5 series</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B8" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="9">
@@ -1326,10 +1200,8 @@
           <t>smart #3</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1338,10 +1210,8 @@
           <t>BYD TANG</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B10" t="n">
+        <v>5.75</v>
       </c>
     </row>
     <row r="11">
@@ -1350,10 +1220,8 @@
           <t>Hyundai KONA</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B11" t="n">
+        <v>2.25</v>
       </c>
     </row>
     <row r="12">
@@ -1362,10 +1230,8 @@
           <t>Kia EV9</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1374,10 +1240,8 @@
           <t>NIO ET5</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B13" t="n">
+        <v>4.25</v>
       </c>
     </row>
     <row r="14">
@@ -1386,10 +1250,8 @@
           <t>NIO EL7</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B14" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="15">
@@ -1398,10 +1260,8 @@
           <t>Lexus RZ</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B15" t="n">
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>
@@ -1441,10 +1301,8 @@
           <t>BYD SEAL</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1453,10 +1311,8 @@
           <t>XPENG G9</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1465,10 +1321,8 @@
           <t>VINFAST VF8</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1477,10 +1331,8 @@
           <t>Honda ZR-V</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1489,10 +1341,8 @@
           <t>BYD SEAL-U</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1501,10 +1351,8 @@
           <t>Volkswagen ID.7</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1513,10 +1361,8 @@
           <t>BMW 5 series</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1525,10 +1371,8 @@
           <t>smart #3</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1537,10 +1381,8 @@
           <t>BYD TANG</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1549,10 +1391,8 @@
           <t>Hyundai KONA</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1561,10 +1401,8 @@
           <t>Kia EV9</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1573,10 +1411,8 @@
           <t>NIO ET5</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1585,10 +1421,8 @@
           <t>NIO EL7</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1597,10 +1431,8 @@
           <t>Lexus RZ</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B15" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1640,10 +1472,8 @@
           <t>BYD SEAL</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1652,10 +1482,8 @@
           <t>XPENG G9</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1664,10 +1492,8 @@
           <t>VINFAST VF8</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1676,10 +1502,8 @@
           <t>Honda ZR-V</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1688,10 +1512,8 @@
           <t>BYD SEAL-U</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1700,10 +1522,8 @@
           <t>Volkswagen ID.7</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1712,10 +1532,8 @@
           <t>BMW 5 series</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1724,10 +1542,8 @@
           <t>smart #3</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1736,10 +1552,8 @@
           <t>BYD TANG</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1748,10 +1562,8 @@
           <t>Hyundai KONA</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1760,10 +1572,8 @@
           <t>Kia EV9</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1772,10 +1582,8 @@
           <t>NIO ET5</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1784,10 +1592,8 @@
           <t>NIO EL7</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1796,10 +1602,8 @@
           <t>Lexus RZ</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B15" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1839,11 +1643,6 @@
           <t>BYD SEAL</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1851,11 +1650,6 @@
           <t>XPENG G9</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1863,11 +1657,6 @@
           <t>VINFAST VF8</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1875,11 +1664,6 @@
           <t>Honda ZR-V</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1887,11 +1671,6 @@
           <t>BYD SEAL-U</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1899,11 +1678,6 @@
           <t>Volkswagen ID.7</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1911,11 +1685,6 @@
           <t>BMW 5 series</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1923,11 +1692,6 @@
           <t>smart #3</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1935,11 +1699,6 @@
           <t>BYD TANG</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1947,11 +1706,6 @@
           <t>Hyundai KONA</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1959,11 +1713,6 @@
           <t>Kia EV9</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1971,11 +1720,6 @@
           <t>NIO ET5</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1983,21 +1727,11 @@
           <t>NIO EL7</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
           <t>Lexus RZ</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Blue</t>
         </is>
       </c>
     </row>

--- a/Extracted Data/VRU Headform - Color-wise graphs/2023 Datasheets & Spreadsheets_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2023 Datasheets & Spreadsheets_combined.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>9.130434782608695</v>
       </c>
     </row>
     <row r="6">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>4.201680672268908</v>
       </c>
     </row>
     <row r="8">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17</v>
+        <v>7.327586206896551</v>
       </c>
     </row>
     <row r="10">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>3.71900826446281</v>
       </c>
     </row>
     <row r="3">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29</v>
+        <v>11.50793650793651</v>
       </c>
     </row>
     <row r="4">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97</v>
+        <v>40.08264462809917</v>
       </c>
     </row>
     <row r="5">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64</v>
+        <v>27.82608695652174</v>
       </c>
     </row>
     <row r="6">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55</v>
+        <v>22.17741935483871</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81</v>
+        <v>34.03361344537815</v>
       </c>
     </row>
     <row r="8">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>147</v>
+        <v>62.82051282051282</v>
       </c>
     </row>
     <row r="9">
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>85</v>
+        <v>36.63793103448276</v>
       </c>
     </row>
     <row r="10">
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50</v>
+        <v>21.36752136752137</v>
       </c>
     </row>
     <row r="11">
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79</v>
+        <v>34.34782608695652</v>
       </c>
     </row>
     <row r="12">
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>95</v>
+        <v>38.30645161290323</v>
       </c>
     </row>
     <row r="13">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>51</v>
+        <v>19.76744186046512</v>
       </c>
     </row>
     <row r="14">
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>72</v>
+        <v>27.90697674418605</v>
       </c>
     </row>
     <row r="15">
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>92</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77.25</v>
+        <v>42.56198347107438</v>
       </c>
     </row>
     <row r="3">
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.5</v>
+        <v>29.36507936507937</v>
       </c>
     </row>
     <row r="4">
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.75</v>
+        <v>20.24793388429752</v>
       </c>
     </row>
     <row r="5">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59.25</v>
+        <v>34.34782608695652</v>
       </c>
     </row>
     <row r="6">
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62.25</v>
+        <v>33.46774193548387</v>
       </c>
     </row>
     <row r="7">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77.25</v>
+        <v>43.27731092436975</v>
       </c>
     </row>
     <row r="8">
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25.5</v>
+        <v>14.52991452991453</v>
       </c>
     </row>
     <row r="9">
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>41.25</v>
+        <v>23.70689655172414</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>60</v>
+        <v>34.18803418803419</v>
       </c>
     </row>
     <row r="11">
@@ -879,7 +879,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>60.75</v>
+        <v>35.21739130434783</v>
       </c>
     </row>
     <row r="12">
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>56.25</v>
+        <v>30.24193548387097</v>
       </c>
     </row>
     <row r="13">
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>76.5</v>
+        <v>39.53488372093023</v>
       </c>
     </row>
     <row r="14">
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48.75</v>
+        <v>25.1937984496124</v>
       </c>
     </row>
     <row r="15">
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>44.25</v>
+        <v>25.65217391304348</v>
       </c>
     </row>
   </sheetData>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>26.8595041322314</v>
       </c>
     </row>
     <row r="3">
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>22.22222222222222</v>
       </c>
     </row>
     <row r="4">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>9.090909090909092</v>
       </c>
     </row>
     <row r="5">
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.5</v>
+        <v>8.260869565217391</v>
       </c>
     </row>
     <row r="6">
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12.5</v>
+        <v>10.08064516129032</v>
       </c>
     </row>
     <row r="7">
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>3.361344537815126</v>
       </c>
     </row>
     <row r="8">
@@ -1020,7 +1020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>5.982905982905983</v>
       </c>
     </row>
     <row r="9">
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.5</v>
+        <v>11.63793103448276</v>
       </c>
     </row>
     <row r="10">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.5</v>
+        <v>12.39316239316239</v>
       </c>
     </row>
     <row r="11">
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.5</v>
+        <v>11.73913043478261</v>
       </c>
     </row>
     <row r="12">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="13">
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18.5</v>
+        <v>14.34108527131783</v>
       </c>
     </row>
     <row r="14">
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>23</v>
+        <v>17.82945736434109</v>
       </c>
     </row>
     <row r="15">
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17</v>
+        <v>14.78260869565217</v>
       </c>
     </row>
   </sheetData>
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.5</v>
+        <v>4.132231404958678</v>
       </c>
     </row>
     <row r="3">
@@ -1141,7 +1141,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.5</v>
+        <v>10.31746031746032</v>
       </c>
     </row>
     <row r="4">
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.5</v>
+        <v>4.132231404958678</v>
       </c>
     </row>
     <row r="5">
@@ -1161,7 +1161,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>6.956521739130435</v>
       </c>
     </row>
     <row r="6">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.5</v>
+        <v>13.70967741935484</v>
       </c>
     </row>
     <row r="7">
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.5</v>
+        <v>2.521008403361345</v>
       </c>
     </row>
     <row r="8">
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.5</v>
+        <v>4.273504273504274</v>
       </c>
     </row>
     <row r="9">
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>5.172413793103448</v>
       </c>
     </row>
     <row r="10">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.75</v>
+        <v>9.82905982905983</v>
       </c>
     </row>
     <row r="11">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.25</v>
+        <v>3.91304347826087</v>
       </c>
     </row>
     <row r="12">
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="13">
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.25</v>
+        <v>6.589147286821706</v>
       </c>
     </row>
     <row r="14">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.5</v>
+        <v>6.976744186046512</v>
       </c>
     </row>
     <row r="15">
@@ -1261,7 +1261,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.5</v>
+        <v>9.565217391304348</v>
       </c>
     </row>
   </sheetData>
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>16.94214876033058</v>
       </c>
     </row>
     <row r="3">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>24.20634920634921</v>
       </c>
     </row>
     <row r="4">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>21.48760330578512</v>
       </c>
     </row>
     <row r="5">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>8.260869565217391</v>
       </c>
     </row>
     <row r="6">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>17.33870967741936</v>
       </c>
     </row>
     <row r="7">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>6.722689075630252</v>
       </c>
     </row>
     <row r="8">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>8.974358974358974</v>
       </c>
     </row>
     <row r="9">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>9.482758620689655</v>
       </c>
     </row>
     <row r="10">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>17.09401709401709</v>
       </c>
     </row>
     <row r="11">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>9.565217391304348</v>
       </c>
     </row>
     <row r="12">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>12.09677419354839</v>
       </c>
     </row>
     <row r="13">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>13.56589147286822</v>
       </c>
     </row>
     <row r="14">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>18.9922480620155</v>
       </c>
     </row>
     <row r="15">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>4.782608695652174</v>
       </c>
     </row>
   </sheetData>
@@ -1473,7 +1473,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5.785123966942149</v>
       </c>
     </row>
     <row r="3">
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2.380952380952381</v>
       </c>
     </row>
     <row r="4">
@@ -1493,7 +1493,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>4.958677685950413</v>
       </c>
     </row>
     <row r="5">
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>5.217391304347826</v>
       </c>
     </row>
     <row r="6">
@@ -1513,7 +1513,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="7">
@@ -1523,7 +1523,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>5.882352941176471</v>
       </c>
     </row>
     <row r="8">
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3.418803418803419</v>
       </c>
     </row>
     <row r="9">
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>6.03448275862069</v>
       </c>
     </row>
     <row r="10">
@@ -1553,7 +1553,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>5.128205128205128</v>
       </c>
     </row>
     <row r="11">
@@ -1563,7 +1563,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>5.217391304347826</v>
       </c>
     </row>
     <row r="12">
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="13">
@@ -1583,7 +1583,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>6.2015503875969</v>
       </c>
     </row>
     <row r="14">
@@ -1593,7 +1593,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>3.10077519379845</v>
       </c>
     </row>
     <row r="15">
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>5.217391304347826</v>
       </c>
     </row>
   </sheetData>
@@ -1643,6 +1643,9 @@
           <t>BYD SEAL</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1650,6 +1653,9 @@
           <t>XPENG G9</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1657,6 +1663,9 @@
           <t>VINFAST VF8</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1664,6 +1673,9 @@
           <t>Honda ZR-V</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1671,6 +1683,9 @@
           <t>BYD SEAL-U</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1678,6 +1693,9 @@
           <t>Volkswagen ID.7</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1685,6 +1703,9 @@
           <t>BMW 5 series</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1692,6 +1713,9 @@
           <t>smart #3</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1699,6 +1723,9 @@
           <t>BYD TANG</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1706,6 +1733,9 @@
           <t>Hyundai KONA</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1713,6 +1743,9 @@
           <t>Kia EV9</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1720,6 +1753,9 @@
           <t>NIO ET5</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1727,12 +1763,18 @@
           <t>NIO EL7</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
           <t>Lexus RZ</t>
         </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
